--- a/Projects/SANOFITR/Data/Template.xlsx
+++ b/Projects/SANOFITR/Data/Template.xlsx
@@ -16,21 +16,23 @@
     <sheet name="Primary&amp;Secondary_Facings" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">MSL!$A$2:$H$12</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">MSL!$A$2:$H$10</definedName>
     <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$12</definedName>
     <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$12</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0" vbProcedure="false">MSL!$A$2:$H$12</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">MSL!$A$2:$H$12</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">MSL!$A$2:$H$12</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">MSL!$A$2:$H$12</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">MSL!$A$2:$H$12</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$12</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$12</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$12</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$12</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$12</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$12</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$12</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0" vbProcedure="false">MSL!$A$2:$H$10</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">MSL!$A$2:$H$10</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">MSL!$A$2:$H$10</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">MSL!$A$2:$H$10</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">MSL!$A$2:$H$10</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$10</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$10</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$10</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$10</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$10</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$10</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$10</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$10</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$10</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$12</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$12</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$12</definedName>
@@ -41,6 +43,8 @@
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$12</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$12</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$12</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$12</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$12</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Primary_Brand_Blocking!$B$4:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_FilterDatabase_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$12</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_FilterDatabase_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$12</definedName>
@@ -62,6 +66,8 @@
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$12</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$12</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$12</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$12</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$12</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -73,219 +79,216 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="71">
-  <si>
-    <t>KPI Name</t>
-  </si>
-  <si>
-    <t>KPI Group</t>
-  </si>
-  <si>
-    <t>KPI Type</t>
-  </si>
-  <si>
-    <t>Tested Group</t>
-  </si>
-  <si>
-    <t>Template Group</t>
-  </si>
-  <si>
-    <t>Sheet</t>
-  </si>
-  <si>
-    <t>SCORE</t>
-  </si>
-  <si>
-    <t>POSM Availability Primary</t>
-  </si>
-  <si>
-    <t>Primary Shelf</t>
-  </si>
-  <si>
-    <t>Product Availability Per SKU</t>
-  </si>
-  <si>
-    <t>Primary&amp;Secondary_POSM</t>
-  </si>
-  <si>
-    <t>numeric</t>
-  </si>
-  <si>
-    <t>Product Minimum Facings Primary</t>
-  </si>
-  <si>
-    <t>Primary&amp;Secondary_Facings</t>
-  </si>
-  <si>
-    <t>Blocked Together</t>
-  </si>
-  <si>
-    <t>Blocked Together Per Brand</t>
-  </si>
-  <si>
-    <t>Primary_Brand_Blocking</t>
-  </si>
-  <si>
-    <t>POSM Availability Secondary</t>
-  </si>
-  <si>
-    <t>Secondary Shelf</t>
-  </si>
-  <si>
-    <t>MSL Compliance</t>
-  </si>
-  <si>
-    <t>MSL</t>
-  </si>
-  <si>
-    <t>Perfect Store</t>
-  </si>
-  <si>
-    <t>Primary Shelf Compliance</t>
-  </si>
-  <si>
-    <t>Secondary Shelf Compliance</t>
-  </si>
-  <si>
-    <t>Perfect Store Compliance</t>
-  </si>
-  <si>
-    <t>Sum of KPIs in Group</t>
-  </si>
-  <si>
-    <t>store type</t>
-  </si>
-  <si>
-    <t>Product Name</t>
-  </si>
-  <si>
-    <t>Product EAN Code</t>
-  </si>
-  <si>
-    <t>Brand</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Points</t>
-  </si>
-  <si>
-    <t>Category 1</t>
-  </si>
-  <si>
-    <t>Category 2</t>
-  </si>
-  <si>
-    <t>Pharmaton® 40 mg / 30 Caps</t>
-  </si>
-  <si>
-    <t>Pharmaton</t>
-  </si>
-  <si>
-    <t>MVS</t>
-  </si>
-  <si>
-    <t>Pharmaton® 40 mg / 60 Caps</t>
-  </si>
-  <si>
-    <t>Pharmaton 50 Plus 30 Caps</t>
-  </si>
-  <si>
-    <t>Pharmaton 50 Plus 60 Caps</t>
-  </si>
-  <si>
-    <t>Enterogermina 10 Flakon</t>
-  </si>
-  <si>
-    <t>Enterogermina</t>
-  </si>
-  <si>
-    <t>DH</t>
-  </si>
-  <si>
-    <t>Enterogermina 20 Flakon</t>
-  </si>
-  <si>
-    <t>Enterogermina Yetişkin 10 Flakon</t>
-  </si>
-  <si>
-    <t>Enterogermina Yetişkin 20 Flakon</t>
-  </si>
-  <si>
-    <t>DOLVEN COLD&amp;FLU 30 TABS</t>
-  </si>
-  <si>
-    <t>Dolven</t>
-  </si>
-  <si>
-    <t>Cough &amp; Cold</t>
-  </si>
-  <si>
-    <t>BUSCOPAN PLUS 20 FILM TABS</t>
-  </si>
-  <si>
-    <t>Buscopan</t>
-  </si>
-  <si>
-    <t>Pain</t>
-  </si>
-  <si>
-    <t>SKUs</t>
-  </si>
-  <si>
-    <t>Shelf Location Compliance</t>
-  </si>
-  <si>
-    <t>Ignore empty</t>
-  </si>
-  <si>
-    <t>Pharmaton® 40 mg / 30 Caps, Pharmaton® 40 mg / 60 Caps, Pharmaton 50 Plus 30 Caps, Pharmaton 50 Plus 60 Caps</t>
-  </si>
-  <si>
-    <t>8699693150011,8699693150080,8699693150172,8699693150189</t>
-  </si>
-  <si>
-    <t>Enterogermina 10 Flakon, Enterogermina 20 Flakon, Enterogermina Yetişkin 10 Flakon, Enterogermina Yetişkin 20 Flakon</t>
-  </si>
-  <si>
-    <t>8699809706620,8699809706637,8699809779181,8699809779198</t>
-  </si>
-  <si>
-    <t>T Pharmaton Shelf Talker/Strip</t>
-  </si>
-  <si>
-    <t>T-STS-01</t>
-  </si>
-  <si>
-    <t>VMS</t>
-  </si>
-  <si>
-    <t>T Pharmaton FSU</t>
-  </si>
-  <si>
-    <t>T-FSU-01</t>
-  </si>
-  <si>
-    <t>T Pharmaton CTU</t>
-  </si>
-  <si>
-    <t>T-CSU-01</t>
-  </si>
-  <si>
-    <t>T Enterogermina CTU</t>
-  </si>
-  <si>
-    <t>T-CSU-02</t>
-  </si>
-  <si>
-    <t> Enterogermina</t>
-  </si>
-  <si>
-    <t>Points Cat 1</t>
-  </si>
-  <si>
-    <t>1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="70">
+  <si>
+    <t xml:space="preserve">KPI Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tested Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Template Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCORE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POSM Availability Primary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary Shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Availability Per SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary&amp;Secondary_POSM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">numeric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Minimum Facings Primary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary&amp;Secondary_Facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Minimum Facings Secondary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secondary Shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blocked Together</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blocked Together Per Brand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary_Brand_Blocking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POSM Availability Secondary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSL Compliance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perfect Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary Shelf Compliance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secondary Shelf Compliance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perfect Store Compliance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sum of KPIs in Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">store type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product EAN Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Points</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pharmaton® 40 mg / 30 Caps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pharmaton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MVS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pharmaton® 40 mg / 60 Caps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pharmaton 50 Plus 30 Caps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pharmaton 50 Plus 60 Caps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enterogermina 10 Flakon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enterogermina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enterogermina Yetişkin 10 Flakon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOLVEN COLD&amp;FLU 30 TABS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dolven</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cough &amp; Cold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUSCOPAN PLUS 20 FILM TABS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buscopan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKUs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shelf Location Compliance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ignore empty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pharmaton® 40 mg / 30 Caps, Pharmaton® 40 mg / 60 Caps, Pharmaton 50 Plus 30 Caps, Pharmaton 50 Plus 60 Caps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8699693150011,8699693150080,8699693150172,8699693150189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enterogermina 10 Flakon,  Enterogermina Yetişkin 10 Flakon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8699809706620, 8699809779181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T Pharmaton Shelf Talker/Strip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T-STS-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T Pharmaton FSU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T-FSU-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T Pharmaton CTU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T-CSU-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T Enterogermina CTU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T-CSU-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Enterogermina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Points Cat 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
   </si>
 </sst>
 </file>
@@ -293,7 +296,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="0.00"/>
     <numFmt numFmtId="167" formatCode="0"/>
@@ -499,7 +502,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="25">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -675,27 +678,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -726,7 +708,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="106">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1075,6 +1057,18 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="12" fillId="9" borderId="24" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="9" borderId="8" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="9" borderId="9" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="16" fillId="6" borderId="10" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1095,15 +1089,15 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="9" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="17" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="9" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="9" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="9" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="9" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1111,11 +1105,23 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="9" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="9" borderId="6" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="9" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="10" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="18" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="9" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1123,48 +1129,8 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="9" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="9" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="9" borderId="6" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="17" fillId="9" borderId="9" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="9" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="9" borderId="25" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="9" borderId="26" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="10" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="18" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="9" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1260,18 +1226,18 @@
   <dimension ref="A1:G65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="D28" activeCellId="0" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.0647773279352"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="34.17004048583"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="33.8502024291498"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="13.497975708502"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.3805668016194"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.2024291497976"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.2591093117409"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.8744939271255"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="35.748987854251"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="35.497975708502"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="14.2024291497976"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1339,136 +1305,156 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="28.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="26.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>8</v>
+      <c r="B4" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6" t="s">
-        <v>8</v>
-      </c>
       <c r="F4" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="28.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="D5" s="6"/>
+      <c r="E5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>10</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="s">
+    <row r="6" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="12" t="s">
+      <c r="B6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="13" t="s">
+      <c r="D6" s="6"/>
+      <c r="E6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="15"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="13"/>
       <c r="F7" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G7" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="C8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11" t="s">
-        <v>8</v>
-      </c>
       <c r="E8" s="15"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="13"/>
+      <c r="F8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="9" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="11"/>
       <c r="G9" s="13"/>
     </row>
     <row r="10" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18" t="s">
+      <c r="B10" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="20" t="s">
+      <c r="B11" s="17"/>
+      <c r="C11" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="19"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1490,20 +1476,20 @@
   <dimension ref="A1:H65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.2753036437247"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="86.1255060728745"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="42.2348178137652"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="90.4736842105263"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.6882591093117"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.2024291497976"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.1376518218624"/>
     <col collapsed="false" hidden="true" max="6" min="6" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.2591093117409"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.2024291497976"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.06072874493927"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="41.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1514,7 +1500,7 @@
       <c r="E1" s="24"/>
       <c r="F1" s="25"/>
       <c r="G1" s="26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H1" s="26"/>
     </row>
@@ -1523,42 +1509,42 @@
         <v>0</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2" s="32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G2" s="33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H2" s="33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="34" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3" s="36" t="n">
         <v>8699693150011</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F3" s="37"/>
       <c r="G3" s="38" t="n">
@@ -1570,19 +1556,19 @@
     </row>
     <row r="4" customFormat="false" ht="24.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="34" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C4" s="36" t="n">
         <v>8699693150080</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F4" s="39"/>
       <c r="G4" s="38" t="n">
@@ -1594,19 +1580,19 @@
     </row>
     <row r="5" s="40" customFormat="true" ht="64.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="34" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C5" s="36" t="n">
         <v>8699693150172</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F5" s="39"/>
       <c r="G5" s="38" t="n">
@@ -1618,19 +1604,19 @@
     </row>
     <row r="6" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="34" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C6" s="36" t="n">
         <v>8699693150189</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F6" s="41"/>
       <c r="G6" s="38" t="n">
@@ -1642,19 +1628,19 @@
     </row>
     <row r="7" customFormat="false" ht="33.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="34" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7" s="36" t="n">
         <v>8699809706620</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F7" s="42"/>
       <c r="G7" s="38" t="n">
@@ -1666,21 +1652,21 @@
     </row>
     <row r="8" customFormat="false" ht="33.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="34" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="36" t="n">
+        <v>8699809779181</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="36" t="n">
-        <v>8699809706637</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="41"/>
+      <c r="F8" s="43"/>
       <c r="G8" s="38" t="n">
         <v>1</v>
       </c>
@@ -1690,21 +1676,21 @@
     </row>
     <row r="9" customFormat="false" ht="33.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="34" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C9" s="36" t="n">
-        <v>8699809779181</v>
+        <v>8699809098558</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="43"/>
+        <v>47</v>
+      </c>
+      <c r="F9" s="41"/>
       <c r="G9" s="38" t="n">
         <v>1</v>
       </c>
@@ -1714,21 +1700,21 @@
     </row>
     <row r="10" customFormat="false" ht="33.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="34" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C10" s="36" t="n">
-        <v>8699809779198</v>
+        <v>8699809098770</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="43"/>
+        <v>50</v>
+      </c>
+      <c r="F10" s="41"/>
       <c r="G10" s="38" t="n">
         <v>1</v>
       </c>
@@ -1736,54 +1722,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="33.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="36" t="n">
-        <v>8699809098558</v>
-      </c>
-      <c r="D11" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="41"/>
-      <c r="G11" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="38" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="33.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="36" t="n">
-        <v>8699809098770</v>
-      </c>
-      <c r="D12" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" s="41"/>
-      <c r="G12" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" s="38" t="n">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="1048492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1865,10 +1805,10 @@
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A2:H12"/>
+  <autoFilter ref="A2:H10"/>
   <mergeCells count="1">
     <mergeCell ref="G1:H1"/>
   </mergeCells>
@@ -1897,15 +1837,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.4210526315789"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.2753036437247"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.8502024291498"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="44" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.82995951417"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="42.2348178137652"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.497975708502"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.3805668016194"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="44" width="13.2267206477733"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.2591093117409"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.06072874493927"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="55.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1915,7 +1855,7 @@
       <c r="D1" s="25"/>
       <c r="E1" s="25"/>
       <c r="F1" s="45" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G1" s="45"/>
     </row>
@@ -1924,28 +1864,28 @@
         <v>0</v>
       </c>
       <c r="B2" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="47" t="s">
-        <v>28</v>
-      </c>
       <c r="F2" s="48" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G2" s="49" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H2" s="50"/>
     </row>
     <row r="3" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="51" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="35"/>
       <c r="C3" s="35"/>
@@ -1956,7 +1896,7 @@
     </row>
     <row r="4" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="51" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" s="35"/>
       <c r="C4" s="35"/>
@@ -1967,7 +1907,7 @@
     </row>
     <row r="5" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="51" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5" s="35"/>
       <c r="C5" s="35"/>
@@ -1978,7 +1918,7 @@
     </row>
     <row r="6" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="51" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6" s="35"/>
       <c r="C6" s="35"/>
@@ -1989,7 +1929,7 @@
     </row>
     <row r="7" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="51" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B7" s="35"/>
       <c r="C7" s="35"/>
@@ -2000,7 +1940,7 @@
     </row>
     <row r="8" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="51" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B8" s="35"/>
       <c r="C8" s="35"/>
@@ -2011,7 +1951,7 @@
     </row>
     <row r="9" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="51" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
@@ -2022,7 +1962,7 @@
     </row>
     <row r="10" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="51" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B10" s="35"/>
       <c r="C10" s="35"/>
@@ -2033,7 +1973,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="51" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B11" s="35"/>
       <c r="C11" s="35"/>
@@ -2044,7 +1984,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="51" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B12" s="35"/>
       <c r="C12" s="35"/>
@@ -2075,22 +2015,22 @@
     <tabColor rgb="FFFFC000"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:65536"/>
+  <dimension ref="1:6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="44" width="13.8178137651822"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="44" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="44" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="44" width="32.7773279352227"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="44" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="44" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="44" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="44" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="44" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="44" width="15.919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="44" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="44" width="34.2793522267206"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="44" width="43.8259109311741"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="44" width="16.5263157894737"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="44" width="10.6558704453441"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="44" width="9.4251012145749"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2101,7 +2041,7 @@
       <c r="E1" s="25"/>
       <c r="F1" s="25"/>
       <c r="G1" s="55" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H1" s="55"/>
       <c r="I1" s="0"/>
@@ -3126,25 +3066,25 @@
         <v>0</v>
       </c>
       <c r="B2" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="57" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="57" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="57" t="s">
-        <v>28</v>
-      </c>
       <c r="F2" s="57" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G2" s="48" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H2" s="58" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I2" s="0"/>
       <c r="J2" s="0"/>
@@ -4165,19 +4105,19 @@
     </row>
     <row r="3" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="59" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3" s="60" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C3" s="60" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D3" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="62" t="s">
         <v>55</v>
-      </c>
-      <c r="E3" s="62" t="s">
-        <v>56</v>
       </c>
       <c r="F3" s="63" t="n">
         <v>1</v>
@@ -5205,21 +5145,21 @@
       <c r="AMI3" s="0"/>
       <c r="AMJ3" s="0"/>
     </row>
-    <row r="4" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="59" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B4" s="60" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C4" s="60" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D4" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="62" t="s">
         <v>57</v>
-      </c>
-      <c r="E4" s="62" t="s">
-        <v>58</v>
       </c>
       <c r="F4" s="63" t="n">
         <v>1</v>
@@ -5233,16 +5173,16 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="59" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B5" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="60" t="s">
-        <v>48</v>
-      </c>
       <c r="D5" s="60" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E5" s="66" t="n">
         <v>8699809098558</v>
@@ -5259,16 +5199,16 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="67" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B6" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="68" t="s">
-        <v>51</v>
-      </c>
       <c r="D6" s="68" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E6" s="69" t="n">
         <v>8699809098770</v>
@@ -5283,12 +5223,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="G1:H1"/>
@@ -5312,18 +5246,18 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+      <selection pane="topLeft" activeCell="E29" activeCellId="0" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.17004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.2753036437247"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.2388663967611"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="8" min="6" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="42.1133603238866"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="42.2348178137652"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="49.582995951417"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.6882591093117"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.2024291497976"/>
+    <col collapsed="false" hidden="false" max="8" min="6" style="0" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.06072874493927"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="48.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5333,7 +5267,7 @@
       <c r="D1" s="24"/>
       <c r="E1" s="24"/>
       <c r="F1" s="72" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G1" s="72"/>
     </row>
@@ -5342,22 +5276,22 @@
         <v>0</v>
       </c>
       <c r="B2" s="74" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" s="74" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D2" s="74" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E2" s="74" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2" s="75" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G2" s="76" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5365,16 +5299,16 @@
         <v>7</v>
       </c>
       <c r="B3" s="78" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="79" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="79" t="s">
+      <c r="D3" s="79" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="79" t="s">
         <v>60</v>
-      </c>
-      <c r="D3" s="79" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="79" t="s">
-        <v>61</v>
       </c>
       <c r="F3" s="80" t="n">
         <v>1</v>
@@ -5385,70 +5319,70 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="82" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B4" s="83" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="84" t="s">
+      <c r="D4" s="85" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="86" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="87" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="85" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="86" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" s="80" t="n">
+      <c r="C5" s="84" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="85" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="86" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="87" t="n">
         <v>1</v>
       </c>
-      <c r="G4" s="81" t="n">
+      <c r="G5" s="87" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="82" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="83" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="84" t="s">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="83" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="85" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="86" t="s">
-        <v>61</v>
-      </c>
-      <c r="F5" s="80" t="n">
+      <c r="C6" s="84" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="83" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="86" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="88" t="n">
         <v>1</v>
       </c>
-      <c r="G5" s="81" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="82" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="83" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="84" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="83" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" s="86" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="80" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="81" t="n">
+      <c r="G6" s="89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5475,20 +5409,20 @@
   <dimension ref="A1:I65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="45.417004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.5627530364373"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="44.668016194332"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.6072874493927"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="47.6234817813765"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="49.9473684210526"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.6882591093117"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.2024291497976"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.2024291497976"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="46.7692307692308"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="9.06072874493927"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="55.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5498,82 +5432,82 @@
       <c r="D1" s="24"/>
       <c r="E1" s="24"/>
       <c r="F1" s="25"/>
-      <c r="G1" s="87" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="87"/>
+      <c r="G1" s="90" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="90"/>
     </row>
     <row r="2" customFormat="false" ht="43.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="46" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" s="47" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D2" s="47" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E2" s="47" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2" s="88" t="s">
-        <v>32</v>
+        <v>68</v>
+      </c>
+      <c r="G2" s="91" t="s">
+        <v>33</v>
       </c>
       <c r="H2" s="49" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="90" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="91" t="n">
+      <c r="B3" s="93" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="94" t="n">
         <v>8699693150011</v>
       </c>
-      <c r="D3" s="90" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="90" t="s">
+      <c r="D3" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="92" t="s">
-        <v>70</v>
-      </c>
-      <c r="G3" s="93" t="n">
+      <c r="E3" s="93" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="95" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" s="96" t="n">
         <v>3</v>
       </c>
-      <c r="H3" s="94" t="n">
+      <c r="H3" s="97" t="n">
         <v>2</v>
       </c>
-      <c r="I3" s="95"/>
+      <c r="I3" s="98"/>
     </row>
     <row r="4" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="93" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="94" t="n">
+        <v>8699693150080</v>
+      </c>
+      <c r="D4" s="93" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="91" t="n">
-        <v>8699693150080</v>
-      </c>
-      <c r="D4" s="90" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="90" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="92" t="s">
-        <v>70</v>
+      <c r="F4" s="95" t="s">
+        <v>69</v>
       </c>
       <c r="G4" s="96" t="n">
         <v>2</v>
@@ -5581,26 +5515,26 @@
       <c r="H4" s="97" t="n">
         <v>1</v>
       </c>
-      <c r="I4" s="95"/>
+      <c r="I4" s="98"/>
     </row>
     <row r="5" s="40" customFormat="true" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="91" t="n">
+      <c r="B5" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="94" t="n">
         <v>8699693150172</v>
       </c>
-      <c r="D5" s="90" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="90" t="s">
+      <c r="D5" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="92" t="s">
-        <v>70</v>
+      <c r="E5" s="93" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="95" t="s">
+        <v>69</v>
       </c>
       <c r="G5" s="96" t="n">
         <v>1</v>
@@ -5610,185 +5544,237 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="89" t="s">
+      <c r="A6" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="90" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="91" t="n">
+      <c r="B6" s="93" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="94" t="n">
         <v>8699693150189</v>
       </c>
-      <c r="D6" s="90" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="90" t="s">
+      <c r="D6" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="92" t="s">
-        <v>70</v>
-      </c>
-      <c r="G6" s="98" t="n">
+      <c r="E6" s="93" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="95" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="96" t="n">
         <v>1</v>
       </c>
-      <c r="H6" s="99" t="n">
+      <c r="H6" s="97" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="90" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="91" t="n">
+      <c r="B7" s="93" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="94" t="n">
         <v>8699809706620</v>
       </c>
-      <c r="D7" s="90" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="90" t="s">
+      <c r="D7" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="92" t="s">
-        <v>70</v>
-      </c>
-      <c r="G7" s="93" t="n">
+      <c r="E7" s="93" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="95" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" s="96" t="n">
         <v>1</v>
       </c>
-      <c r="H7" s="100" t="n">
+      <c r="H7" s="99" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="89" t="s">
+      <c r="A8" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="90" t="s">
+      <c r="B8" s="93" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="94" t="n">
+        <v>8699809779181</v>
+      </c>
+      <c r="D8" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="93" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="91" t="n">
-        <v>8699809706637</v>
-      </c>
-      <c r="D8" s="90" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="90" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="92" t="s">
-        <v>70</v>
+      <c r="F8" s="95" t="s">
+        <v>69</v>
       </c>
       <c r="G8" s="96" t="n">
         <v>1</v>
       </c>
-      <c r="H8" s="101" t="n">
-        <v>0</v>
+      <c r="H8" s="97" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="89" t="s">
+      <c r="A9" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="90" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="91" t="n">
-        <v>8699809779181</v>
-      </c>
-      <c r="D9" s="90" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="90" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="92" t="s">
-        <v>70</v>
+      <c r="B9" s="93" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="94" t="n">
+        <v>8699809098558</v>
+      </c>
+      <c r="D9" s="93" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="93" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="95" t="n">
+        <v>1</v>
       </c>
       <c r="G9" s="96" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="97" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="H9" s="99" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="89" t="s">
+      <c r="A10" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="90" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="91" t="n">
-        <v>8699809779198</v>
-      </c>
-      <c r="D10" s="90" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="90" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="92" t="s">
-        <v>70</v>
-      </c>
-      <c r="G10" s="98" t="n">
+      <c r="B10" s="93" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="94" t="n">
+        <v>8699809098770</v>
+      </c>
+      <c r="D10" s="93" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="93" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="95" t="n">
         <v>1</v>
       </c>
-      <c r="H10" s="102" t="n">
-        <v>0</v>
+      <c r="G10" s="96" t="n">
+        <v>2</v>
+      </c>
+      <c r="H10" s="99" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="89" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="90" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="91" t="n">
-        <v>8699809098558</v>
-      </c>
-      <c r="D11" s="90" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="90" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="103" t="n">
+      <c r="A11" s="92" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="93" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="94" t="n">
+        <v>8699693150011</v>
+      </c>
+      <c r="D11" s="93" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="93" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="95" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="96" t="n">
         <v>1</v>
       </c>
-      <c r="G11" s="104" t="n">
-        <v>2</v>
-      </c>
-      <c r="H11" s="105" t="n">
-        <v>2</v>
+      <c r="H11" s="99" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="106" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="107" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="108" t="n">
-        <v>8699809098770</v>
-      </c>
-      <c r="D12" s="107" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="107" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" s="109" t="n">
+      <c r="A12" s="92" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="93" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="94" t="n">
+        <v>8699693150080</v>
+      </c>
+      <c r="D12" s="93" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="93" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="95" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="96" t="n">
         <v>1</v>
       </c>
-      <c r="G12" s="98" t="n">
-        <v>2</v>
-      </c>
-      <c r="H12" s="102" t="n">
-        <v>2</v>
+      <c r="H12" s="99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="24.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="92" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="93" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="94" t="n">
+        <v>8699809706620</v>
+      </c>
+      <c r="D13" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="93" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="95" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="96" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" s="99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="24.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="100" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="101" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="102" t="n">
+        <v>8699809779181</v>
+      </c>
+      <c r="D14" s="101" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="101" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="103" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" s="104" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="105" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/Projects/SANOFITR/Data/Template.xlsx
+++ b/Projects/SANOFITR/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -588,7 +588,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="63">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -750,22 +750,6 @@
   </si>
   <si>
     <t xml:space="preserve">SKUs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pharmaton 40 mg / 30 Caps,
-Pharmaton 40 mg / 60 Caps,
-Pharmaton 50 Plus 30 Caps,
-Pharmaton 50 Plus 60 Caps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8699693150011,8699693150080,8699693150172,8699693150189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enterogermina 10 Flakon,
-Enterogermina Yetişkin 10 Flakon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8699809706620,8699809779181</t>
   </si>
   <si>
     <t xml:space="preserve">T Pharmaton Shelf Talker/Strip</t>
@@ -1081,7 +1065,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="60">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1190,10 +1174,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="166" fontId="16" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1232,30 +1212,6 @@
     </xf>
     <xf numFmtId="165" fontId="10" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1436,13 +1392,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.8542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.0647773279352"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.0647773279352"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.2793522267206"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.2105263157895"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.7449392712551"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1706,12 +1662,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="42.6315789473684"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="21.8542510121457"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="43.0607287449393"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="22.0647773279352"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="17.8906882591093"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="13" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="17.8906882591093"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="13" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="14" width="8.89068825910931"/>
   </cols>
@@ -2020,26 +1976,26 @@
   </sheetPr>
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="26" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="26" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="26" width="30.7449392712551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="26" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="26" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="27" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="26" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="26" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="26" width="31.0647773279352"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="26" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="26" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="14" width="8.89068825910931"/>
   </cols>
   <sheetData>
-    <row r="1" s="14" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="28"/>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="27"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
       <c r="F1" s="16" t="s">
         <v>30</v>
       </c>
@@ -2067,136 +2023,136 @@
       <c r="G2" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="29"/>
+      <c r="H2" s="28"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="30"/>
+      <c r="A3" s="29"/>
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
       <c r="D3" s="20"/>
       <c r="E3" s="13"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="30"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="33"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="32"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="30"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="33"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="32"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="30"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="33"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="32"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="30"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="33"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="32"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="30"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="33"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="32"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="30"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="33"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="32"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="30"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="33"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="32"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="30"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="33"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="32"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="30"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="33"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="32"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="30"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="33"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="32"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="30"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="30"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="30"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="33"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="32"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="30"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="33"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="32"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="30"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="33"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="32"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2218,28 +2174,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="34" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="34" width="36.9554655870445"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="34" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="34" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="34" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="35" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="33" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="33" width="37.2793522267206"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="33" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="33" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="33" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="34" width="8.89068825910931"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="36"/>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
+      <c r="A1" s="35"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
       <c r="F1" s="16" t="s">
         <v>30</v>
       </c>
@@ -2258,7 +2214,7 @@
       <c r="D2" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="36" t="s">
         <v>32</v>
       </c>
       <c r="F2" s="18" t="s">
@@ -2267,125 +2223,6 @@
       <c r="G2" s="18" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="41" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="41" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="42" t="n">
-        <v>8699809098558</v>
-      </c>
-      <c r="F5" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="41" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="42" t="n">
-        <v>8699809098770</v>
-      </c>
-      <c r="F6" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="41" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="38"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="38"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="38"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2415,14 +2252,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="43" width="28.2793522267206"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="44" width="32.1376518218623"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="43" width="21.8542510121457"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="44" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="44" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="43" width="18.4251012145749"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="43" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="45" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="26" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="37" width="32.3481781376518"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="26" width="22.0647773279352"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="37" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="37" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="26" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="26" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="38" width="8.89068825910931"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2437,158 +2274,158 @@
       <c r="G1" s="16"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="39" t="s">
         <v>34</v>
       </c>
       <c r="F2" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="47" t="s">
+      <c r="G2" s="40" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="41" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C5" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D5" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="50" t="s">
+      <c r="E5" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="31" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="51" t="s">
+      <c r="F5" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B6" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C6" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="31" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="31" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" s="50" t="s">
+      <c r="D6" s="43" t="s">
         <v>44</v>
       </c>
       <c r="E6" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="31" t="n">
+      <c r="F6" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="30" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="52"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="20"/>
       <c r="C7" s="0"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="52"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="20"/>
       <c r="C8" s="0"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="52"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="20"/>
       <c r="C9" s="0"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="52"/>
+      <c r="A10" s="45"/>
       <c r="B10" s="20"/>
       <c r="C10" s="0"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="54"/>
+      <c r="C11" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2618,21 +2455,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="55" width="30.8502024291498"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="55" width="42.6315789473684"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="55" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="55" width="17.4615384615385"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="55" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="55" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="56" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="48" width="31.17004048583"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="48" width="43.0607287449393"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="48" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="48" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="48" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="48" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="49" width="8.89068825910931"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="57"/>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
+      <c r="A1" s="50"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
       <c r="F1" s="16" t="s">
         <v>30</v>
       </c>
@@ -2640,305 +2477,305 @@
       <c r="H1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="39" t="s">
         <v>34</v>
       </c>
       <c r="F2" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="47" t="s">
+      <c r="G2" s="40" t="s">
         <v>36</v>
       </c>
       <c r="H2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="59" t="n">
+      <c r="C3" s="52" t="n">
         <v>8699693150011</v>
       </c>
-      <c r="D3" s="60" t="s">
+      <c r="D3" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="50" t="s">
+      <c r="E3" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="61" t="n">
+      <c r="F3" s="54" t="n">
         <v>3</v>
       </c>
-      <c r="G3" s="61" t="n">
+      <c r="G3" s="54" t="n">
         <v>2</v>
       </c>
-      <c r="H3" s="62"/>
+      <c r="H3" s="55"/>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="59" t="n">
+      <c r="C4" s="52" t="n">
         <v>8699693150080</v>
       </c>
-      <c r="D4" s="60" t="s">
+      <c r="D4" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="50" t="s">
+      <c r="E4" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="61" t="n">
+      <c r="F4" s="54" t="n">
         <v>2</v>
       </c>
-      <c r="G4" s="61" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="62"/>
+      <c r="G4" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="55"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="65" t="n">
+      <c r="C5" s="58" t="n">
         <v>8699693150172</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="50" t="s">
+      <c r="E5" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="61" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="61" t="n">
+      <c r="F5" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="54" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="65" t="n">
+      <c r="C6" s="58" t="n">
         <v>8699693150189</v>
       </c>
-      <c r="D6" s="64" t="s">
+      <c r="D6" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="50" t="s">
+      <c r="E6" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="61" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="61" t="n">
+      <c r="F6" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="54" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="65" t="n">
+      <c r="C7" s="58" t="n">
         <v>8699809706620</v>
       </c>
-      <c r="D7" s="64" t="s">
+      <c r="D7" s="57" t="s">
         <v>44</v>
       </c>
       <c r="E7" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="61" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="61" t="n">
+      <c r="F7" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="54" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="65" t="n">
+      <c r="C8" s="58" t="n">
         <v>8699809779181</v>
       </c>
-      <c r="D8" s="64" t="s">
+      <c r="D8" s="57" t="s">
         <v>44</v>
       </c>
       <c r="E8" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="61" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="61" t="n">
+      <c r="F8" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="54" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="65" t="n">
+      <c r="C9" s="58" t="n">
         <v>8699809098558</v>
       </c>
-      <c r="D9" s="64" t="s">
+      <c r="D9" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="64" t="s">
+      <c r="E9" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="61" t="n">
+      <c r="F9" s="54" t="n">
         <v>2</v>
       </c>
-      <c r="G9" s="61" t="n">
+      <c r="G9" s="54" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="63" t="s">
+      <c r="A10" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="65" t="n">
+      <c r="C10" s="58" t="n">
         <v>8699809098770</v>
       </c>
-      <c r="D10" s="64" t="s">
+      <c r="D10" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="64" t="s">
+      <c r="E10" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="61" t="n">
+      <c r="F10" s="54" t="n">
         <v>2</v>
       </c>
-      <c r="G10" s="61" t="n">
+      <c r="G10" s="54" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="66" t="s">
+      <c r="A11" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="65" t="n">
+      <c r="C11" s="58" t="n">
         <v>8699693150011</v>
       </c>
-      <c r="D11" s="64" t="s">
+      <c r="D11" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="50" t="s">
+      <c r="E11" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="61" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" s="61" t="s">
-        <v>66</v>
+      <c r="F11" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="54" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="66" t="s">
+      <c r="A12" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="65" t="n">
+      <c r="C12" s="58" t="n">
         <v>8699693150080</v>
       </c>
-      <c r="D12" s="64" t="s">
+      <c r="D12" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="50" t="s">
+      <c r="E12" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="61" t="s">
-        <v>66</v>
-      </c>
-      <c r="G12" s="61" t="s">
-        <v>66</v>
+      <c r="F12" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="54" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="66" t="s">
+      <c r="A13" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="64" t="s">
+      <c r="B13" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="65" t="n">
+      <c r="C13" s="58" t="n">
         <v>8699809706620</v>
       </c>
-      <c r="D13" s="64" t="s">
+      <c r="D13" s="57" t="s">
         <v>44</v>
       </c>
       <c r="E13" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="61" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" s="61" t="s">
-        <v>66</v>
+      <c r="F13" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="54" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="66" t="s">
+      <c r="A14" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="64" t="s">
+      <c r="B14" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="65" t="n">
+      <c r="C14" s="58" t="n">
         <v>8699809779181</v>
       </c>
-      <c r="D14" s="64" t="s">
+      <c r="D14" s="57" t="s">
         <v>44</v>
       </c>
       <c r="E14" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="61" t="s">
-        <v>66</v>
-      </c>
-      <c r="G14" s="61" t="s">
-        <v>66</v>
+      <c r="F14" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="54" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/SANOFITR/Data/Template.xlsx
+++ b/Projects/SANOFITR/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -221,7 +221,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t xml:space="preserve">Indicate 1 for segment that KPI will be applied / indicare 0 for non selected segment</t>
+          <t xml:space="preserve">Minimum number of facings for each SKU per Segment (Indicate 0 if not in Min facings)</t>
         </r>
       </text>
     </comment>
@@ -323,7 +323,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t xml:space="preserve">Indicate 1 for segment that KPI will be applied / indicare 0 for non selected segment</t>
+          <t xml:space="preserve">Minimum number of facings for each SKU per Segment (Indicate 0 if not in Min facings)</t>
         </r>
       </text>
     </comment>
@@ -463,7 +463,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t xml:space="preserve">Minimum number of facings for each POSM per Segement (Indicate 0 if not checked)</t>
+          <t xml:space="preserve">Minimum number of facings for each SKU per Segment (Indicate 0 if not in Min facings)</t>
         </r>
       </text>
     </comment>
@@ -588,7 +588,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="73">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -701,6 +701,9 @@
     <t xml:space="preserve">Category 2</t>
   </si>
   <si>
+    <t xml:space="preserve">Category 3</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pharmaton® 40 mg / 30 Caps</t>
   </si>
   <si>
@@ -749,6 +752,12 @@
     <t xml:space="preserve">Pain</t>
   </si>
   <si>
+    <t xml:space="preserve">Bisolnatur Syrup 94 ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bisolnatur</t>
+  </si>
+  <si>
     <t xml:space="preserve">SKUs</t>
   </si>
   <si>
@@ -758,6 +767,18 @@
     <t xml:space="preserve">T-STS-01</t>
   </si>
   <si>
+    <t xml:space="preserve">T Enterogermina Shelf Talker/Strip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T-STS-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T Bisolnatur Shelf Talker/Strip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T-STS-03</t>
+  </si>
+  <si>
     <t xml:space="preserve">T Pharmaton FSU</t>
   </si>
   <si>
@@ -776,7 +797,16 @@
     <t xml:space="preserve">T-CSU-02</t>
   </si>
   <si>
-    <t xml:space="preserve">0</t>
+    <t xml:space="preserve">T Enterogermina FSU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T-FSU-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T Bisolnatur CTU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T-CSU-03</t>
   </si>
 </sst>
 </file>
@@ -789,7 +819,7 @@
     <numFmt numFmtId="166" formatCode="0.00"/>
     <numFmt numFmtId="167" formatCode="0"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -906,14 +936,8 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
       <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -921,7 +945,6 @@
     <font>
       <b val="true"/>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -940,19 +963,13 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -974,7 +991,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB4C7E7"/>
-        <bgColor rgb="FFC5E0B4"/>
+        <bgColor rgb="FF99CCFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -1004,7 +1021,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC5E0B4"/>
-        <bgColor rgb="FFA9D18E"/>
+        <bgColor rgb="FFDAE3F3"/>
       </patternFill>
     </fill>
     <fill>
@@ -1013,14 +1030,8 @@
         <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA9D18E"/>
-        <bgColor rgb="FFC5E0B4"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1033,6 +1044,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -1065,7 +1083,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="66">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1118,7 +1136,11 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1126,126 +1148,154 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="8" fillId="6" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="8" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="8" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="16" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="166" fontId="18" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1258,51 +1308,43 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="21" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1354,7 +1396,7 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFC5E0B4"/>
       <rgbColor rgb="FFFFE699"/>
-      <rgbColor rgb="FFA9D18E"/>
+      <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
@@ -1392,14 +1434,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.0647773279352"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.2793522267206"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.6315789473684"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.0566801619433"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.3238866396761"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.0404858299595"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.8097165991903"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.18218623481781"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1654,309 +1696,300 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="25.0647773279352"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="43.0607287449393"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="22.0647773279352"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="13" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="14" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="26.9311740890688"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="46.1538461538462"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="23.6315789473684"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="19.0971659919028"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="14.4453441295547"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="19.0971659919028"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="13" width="17.502024291498"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="14" width="17.502024291498"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="15" width="9.30364372469636"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="15"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="16" t="s">
+      <c r="A1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="16"/>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="17" t="s">
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+    </row>
+    <row r="2" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="19" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="19" t="s">
+      <c r="H2" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="21" t="n">
+      <c r="B3" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="22" t="n">
         <v>8699693150011</v>
       </c>
-      <c r="D3" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="23" t="s">
+      <c r="D3" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="19" t="s">
+      <c r="E3" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="22" t="n">
+        <v>8699693150080</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="21" t="n">
-        <v>8699693150080</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="23" t="s">
+      <c r="F4" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="22" t="n">
+        <v>8699693150172</v>
+      </c>
+      <c r="D5" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="19" t="s">
+      <c r="E5" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="21" t="n">
-        <v>8699693150172</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="23" t="s">
+      <c r="B6" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="22" t="n">
+        <v>8699693150189</v>
+      </c>
+      <c r="D6" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="19" t="s">
+      <c r="E6" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="21" t="n">
-        <v>8699693150189</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="19" t="s">
+      <c r="B7" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="22" t="n">
+        <v>8699809706620</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="21" t="n">
-        <v>8699809706620</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="23" t="s">
+      <c r="B8" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="22" t="n">
+        <v>8699809779181</v>
+      </c>
+      <c r="D8" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="19" t="s">
+      <c r="E8" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="21" t="n">
-        <v>8699809779181</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="19" t="s">
+      <c r="B9" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="22" t="n">
+        <v>8699809098558</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="21" t="n">
-        <v>8699809098558</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="19" t="s">
+      <c r="B10" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="22" t="n">
+        <v>8699809098770</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B11" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="22" t="n">
+        <v>8699809575202</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="21" t="n">
-        <v>8699809098770</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="19"/>
-      <c r="B11" s="20"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="19"/>
-      <c r="B12" s="20"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="19"/>
-      <c r="B13" s="20"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="19"/>
-      <c r="B14" s="25"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="19"/>
-      <c r="B15" s="25"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="19"/>
-      <c r="B16" s="20"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="19"/>
-      <c r="B17" s="20"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="19"/>
-      <c r="B18" s="20"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
+      <c r="F11" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="25" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F1:H1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1974,20 +2007,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="B37" activeCellId="0" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="26" width="25.0647773279352"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="26" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="26" width="31.0647773279352"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="26" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="26" width="17.246963562753"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="14" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="26" width="26.9311740890688"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="26" width="22.6437246963563"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="26" width="33.4210526315789"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="26" width="22.6437246963563"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="26" width="18.3684210526316"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="14" width="17.753036437247"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="15" width="9.30364372469636"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1996,167 +2030,275 @@
       <c r="C1" s="27"/>
       <c r="D1" s="27"/>
       <c r="E1" s="27"/>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="16"/>
-    </row>
-    <row r="2" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="17" t="s">
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+    </row>
+    <row r="2" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="35" t="n">
+        <v>8699693150011</v>
+      </c>
+      <c r="F3" s="36" t="n">
+        <v>6</v>
+      </c>
+      <c r="G3" s="36" t="n">
+        <v>3</v>
+      </c>
+      <c r="H3" s="37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="40" t="n">
+        <v>8699693150080</v>
+      </c>
+      <c r="F4" s="36" t="n">
+        <v>4</v>
+      </c>
+      <c r="G4" s="36" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" s="37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="40" t="n">
+        <v>8699693150172</v>
+      </c>
+      <c r="F5" s="36" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="40" t="n">
+        <v>8699693150189</v>
+      </c>
+      <c r="F6" s="36" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="40" t="n">
+        <v>8699809706620</v>
+      </c>
+      <c r="F7" s="36" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="40" t="n">
+        <v>8699809779181</v>
+      </c>
+      <c r="F8" s="36" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="40" t="n">
+        <v>8699809098558</v>
+      </c>
+      <c r="F9" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="28"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="29"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="29"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="32"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="29"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="32"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="29"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="32"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="29"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="32"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="29"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="32"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="29"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="32"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="29"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="32"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="29"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="32"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="29"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="32"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="29"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="32"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="29"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="29"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="29"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="32"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="29"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="32"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="29"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="32"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
+      <c r="D10" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="40" t="n">
+        <v>8699809098770</v>
+      </c>
+      <c r="F10" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="40" t="n">
+        <v>8699809575202</v>
+      </c>
+      <c r="F11" s="36" t="n">
+        <v>4</v>
+      </c>
+      <c r="G11" s="36" t="n">
+        <v>3</v>
+      </c>
+      <c r="H11" s="37" t="n">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F1:H1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2174,59 +2316,64 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="33" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="33" width="37.2793522267206"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="33" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="33" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="33" width="14.8906882591093"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="34" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="41" width="22.0364372469636"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="41" width="40.0323886639676"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="41" width="22.0364372469636"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="41" width="17.502024291498"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="41" width="15.668016194332"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="42" width="19.9514170040486"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="43" width="9.30364372469636"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="35"/>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="16" t="s">
+      <c r="A1" s="44"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="16"/>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="17" t="s">
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+    </row>
+    <row r="2" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="31" t="s">
         <v>36</v>
+      </c>
+      <c r="H2" s="31" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F1:H1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2244,192 +2391,277 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="26" width="28.4939271255061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="37" width="32.3481781376518"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="26" width="22.0647773279352"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="37" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="37" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="26" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="26" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="38" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="26" width="30.4777327935223"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="46" width="34.6437246963563"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="26" width="23.6315789473684"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="46" width="28.1578947368421"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="46" width="20.3238866396761"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="26" width="19.82995951417"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="26" width="19.0971659919028"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="47" width="13.3481781376518"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="48" width="9.30364372469636"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="15"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="16" t="s">
+      <c r="A1" s="49"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="16"/>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="39" t="s">
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+    </row>
+    <row r="2" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="G2" s="31" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="41" t="s">
+      <c r="H2" s="31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="20" t="s">
-        <v>54</v>
+      <c r="B3" s="34" t="s">
+        <v>57</v>
       </c>
       <c r="C3" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="43" t="s">
+      <c r="E5" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="30" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="44" t="s">
+      <c r="E6" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="43" t="s">
+      <c r="B7" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="30" t="n">
+      <c r="E7" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="36" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="44" t="s">
+      <c r="H9" s="36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="30" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="30" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="45"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="0"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="45"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="0"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="45"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="0"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="45"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="0"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="47"/>
+      <c r="B10" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F1:H1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2447,340 +2679,299 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E29" activeCellId="0" sqref="E29"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="48" width="31.17004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="48" width="43.0607287449393"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="48" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="48" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="48" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="48" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="49" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="56" width="33.4210526315789"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="56" width="46.1538461538462"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="56" width="20.1943319838057"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="56" width="18.7327935222672"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="56" width="17.502024291498"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="56" width="19.0971659919028"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="57" width="17.2591093117409"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="58" width="9.30364372469636"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="50"/>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="16" t="s">
+      <c r="A1" s="59"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="39" t="s">
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+    </row>
+    <row r="2" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="G2" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="0"/>
-    </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="41" t="s">
+      <c r="H2" s="31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="51" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="52" t="n">
+      <c r="B3" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="62" t="n">
         <v>8699693150011</v>
       </c>
-      <c r="D3" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="43" t="s">
+      <c r="D3" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="54" t="n">
+      <c r="E3" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="64" t="n">
+        <v>6</v>
+      </c>
+      <c r="G3" s="64" t="n">
         <v>3</v>
       </c>
-      <c r="G3" s="54" t="n">
+      <c r="H3" s="64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="62" t="n">
+        <v>8699693150080</v>
+      </c>
+      <c r="D4" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="64" t="n">
+        <v>4</v>
+      </c>
+      <c r="G4" s="64" t="n">
         <v>2</v>
       </c>
-      <c r="H3" s="55"/>
-    </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="41" t="s">
+      <c r="H4" s="64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B5" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="65" t="n">
+        <v>8699693150172</v>
+      </c>
+      <c r="D5" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="52" t="n">
-        <v>8699693150080</v>
-      </c>
-      <c r="D4" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="43" t="s">
+      <c r="F5" s="64" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" s="64" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="65" t="n">
+        <v>8699693150189</v>
+      </c>
+      <c r="D6" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="54" t="n">
+      <c r="E6" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="64" t="n">
         <v>2</v>
       </c>
-      <c r="G4" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="55"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="56" t="s">
+      <c r="G6" s="64" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="57" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="58" t="n">
-        <v>8699693150172</v>
-      </c>
-      <c r="D5" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="54" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="56" t="s">
+      <c r="B7" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="65" t="n">
+        <v>8699809706620</v>
+      </c>
+      <c r="D7" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="64" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" s="64" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="57" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="58" t="n">
-        <v>8699693150189</v>
-      </c>
-      <c r="D6" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="54" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="56" t="s">
+      <c r="B8" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="65" t="n">
+        <v>8699809779181</v>
+      </c>
+      <c r="D8" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="64" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" s="64" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="57" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="58" t="n">
-        <v>8699809706620</v>
-      </c>
-      <c r="D7" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="54" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="56" t="s">
+      <c r="B9" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="65" t="n">
+        <v>8699809098558</v>
+      </c>
+      <c r="D9" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="64" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="64" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="57" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="58" t="n">
-        <v>8699809779181</v>
-      </c>
-      <c r="D8" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="54" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="56" t="s">
+      <c r="B10" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="65" t="n">
+        <v>8699809098770</v>
+      </c>
+      <c r="D10" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="64" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="64" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="57" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="58" t="n">
-        <v>8699809098558</v>
-      </c>
-      <c r="D9" s="57" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="57" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="54" t="n">
+      <c r="B11" s="56" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="65" t="n">
+        <v>8699809575202</v>
+      </c>
+      <c r="D11" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="64" t="n">
+        <v>4</v>
+      </c>
+      <c r="G11" s="64" t="n">
+        <v>3</v>
+      </c>
+      <c r="H11" s="64" t="n">
         <v>2</v>
-      </c>
-      <c r="G9" s="54" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="58" t="n">
-        <v>8699809098770</v>
-      </c>
-      <c r="D10" s="57" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="57" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="54" t="n">
-        <v>2</v>
-      </c>
-      <c r="G10" s="54" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="57" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="58" t="n">
-        <v>8699693150011</v>
-      </c>
-      <c r="D11" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="G11" s="54" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="58" t="n">
-        <v>8699693150080</v>
-      </c>
-      <c r="D12" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="G12" s="54" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="57" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="58" t="n">
-        <v>8699809706620</v>
-      </c>
-      <c r="D13" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="G13" s="54" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="57" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="58" t="n">
-        <v>8699809779181</v>
-      </c>
-      <c r="D14" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="G14" s="54" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F1:H1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Projects/SANOFITR/Data/Template.xlsx
+++ b/Projects/SANOFITR/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -221,7 +221,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t xml:space="preserve">Indicate 1 for segment that KPI will be applied / indicare 0 for non selected segment</t>
+          <t xml:space="preserve">Minimum number of facings for each SKU per Segment (Indicate 0 if not in Min facings)</t>
         </r>
       </text>
     </comment>
@@ -323,7 +323,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t xml:space="preserve">Indicate 1 for segment that KPI will be applied / indicare 0 for non selected segment</t>
+          <t xml:space="preserve">Minimum number of facings for each SKU per Segment (Indicate 0 if not in Min facings)</t>
         </r>
       </text>
     </comment>
@@ -463,7 +463,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t xml:space="preserve">Minimum number of facings for each POSM per Segement (Indicate 0 if not checked)</t>
+          <t xml:space="preserve">Minimum number of facings for each SKU per Segment (Indicate 0 if not in Min facings)</t>
         </r>
       </text>
     </comment>
@@ -588,7 +588,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="73">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -701,6 +701,9 @@
     <t xml:space="preserve">Category 2</t>
   </si>
   <si>
+    <t xml:space="preserve">Category 3</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pharmaton® 40 mg / 30 Caps</t>
   </si>
   <si>
@@ -749,31 +752,33 @@
     <t xml:space="preserve">Pain</t>
   </si>
   <si>
+    <t xml:space="preserve">Bisolnatur Syrup 94 ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bisolnatur</t>
+  </si>
+  <si>
     <t xml:space="preserve">SKUs</t>
   </si>
   <si>
-    <t xml:space="preserve">Pharmaton 40 mg / 30 Caps,
-Pharmaton 40 mg / 60 Caps,
-Pharmaton 50 Plus 30 Caps,
-Pharmaton 50 Plus 60 Caps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8699693150011,8699693150080,8699693150172,8699693150189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enterogermina 10 Flakon,
-Enterogermina Yetişkin 10 Flakon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8699809706620,8699809779181</t>
-  </si>
-  <si>
     <t xml:space="preserve">T Pharmaton Shelf Talker/Strip</t>
   </si>
   <si>
     <t xml:space="preserve">T-STS-01</t>
   </si>
   <si>
+    <t xml:space="preserve">T Enterogermina Shelf Talker/Strip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T-STS-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T Bisolnatur Shelf Talker/Strip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T-STS-03</t>
+  </si>
+  <si>
     <t xml:space="preserve">T Pharmaton FSU</t>
   </si>
   <si>
@@ -792,7 +797,16 @@
     <t xml:space="preserve">T-CSU-02</t>
   </si>
   <si>
-    <t xml:space="preserve">0</t>
+    <t xml:space="preserve">T Enterogermina FSU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T-FSU-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T Bisolnatur CTU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T-CSU-03</t>
   </si>
 </sst>
 </file>
@@ -805,7 +819,7 @@
     <numFmt numFmtId="166" formatCode="0.00"/>
     <numFmt numFmtId="167" formatCode="0"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -922,14 +936,8 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
       <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -937,7 +945,6 @@
     <font>
       <b val="true"/>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -956,19 +963,13 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -990,7 +991,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB4C7E7"/>
-        <bgColor rgb="FFC5E0B4"/>
+        <bgColor rgb="FF99CCFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -1020,7 +1021,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC5E0B4"/>
-        <bgColor rgb="FFA9D18E"/>
+        <bgColor rgb="FFDAE3F3"/>
       </patternFill>
     </fill>
     <fill>
@@ -1029,14 +1030,8 @@
         <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA9D18E"/>
-        <bgColor rgb="FFC5E0B4"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1049,6 +1044,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -1081,7 +1083,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="66">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1134,7 +1136,11 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1142,154 +1148,154 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="8" fillId="6" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="8" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="8" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="16" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="166" fontId="18" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1302,51 +1308,43 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="21" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1398,7 +1396,7 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFC5E0B4"/>
       <rgbColor rgb="FFFFE699"/>
-      <rgbColor rgb="FFA9D18E"/>
+      <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
@@ -1436,14 +1434,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.8542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.0647773279352"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.6315789473684"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.0566801619433"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.3238866396761"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.0404858299595"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.8097165991903"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.18218623481781"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1698,309 +1696,300 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="42.6315789473684"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="21.8542510121457"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="13" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="14" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="26.9311740890688"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="46.1538461538462"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="23.6315789473684"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="19.0971659919028"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="14.4453441295547"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="19.0971659919028"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="13" width="17.502024291498"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="14" width="17.502024291498"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="15" width="9.30364372469636"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="15"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="16" t="s">
+      <c r="A1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="16"/>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="17" t="s">
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+    </row>
+    <row r="2" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="19" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="19" t="s">
+      <c r="H2" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="21" t="n">
+      <c r="B3" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="22" t="n">
         <v>8699693150011</v>
       </c>
-      <c r="D3" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="23" t="s">
+      <c r="D3" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="19" t="s">
+      <c r="E3" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="22" t="n">
+        <v>8699693150080</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="21" t="n">
-        <v>8699693150080</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="23" t="s">
+      <c r="F4" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="22" t="n">
+        <v>8699693150172</v>
+      </c>
+      <c r="D5" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="19" t="s">
+      <c r="E5" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="21" t="n">
-        <v>8699693150172</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="23" t="s">
+      <c r="B6" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="22" t="n">
+        <v>8699693150189</v>
+      </c>
+      <c r="D6" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="19" t="s">
+      <c r="E6" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="21" t="n">
-        <v>8699693150189</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="19" t="s">
+      <c r="B7" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="22" t="n">
+        <v>8699809706620</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="21" t="n">
-        <v>8699809706620</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="23" t="s">
+      <c r="B8" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="22" t="n">
+        <v>8699809779181</v>
+      </c>
+      <c r="D8" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="19" t="s">
+      <c r="E8" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="21" t="n">
-        <v>8699809779181</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="19" t="s">
+      <c r="B9" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="22" t="n">
+        <v>8699809098558</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="21" t="n">
-        <v>8699809098558</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="19" t="s">
+      <c r="B10" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="22" t="n">
+        <v>8699809098770</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B11" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="22" t="n">
+        <v>8699809575202</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="21" t="n">
-        <v>8699809098770</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="19"/>
-      <c r="B11" s="20"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="19"/>
-      <c r="B12" s="20"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="19"/>
-      <c r="B13" s="20"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="19"/>
-      <c r="B14" s="25"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="19"/>
-      <c r="B15" s="25"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="19"/>
-      <c r="B16" s="20"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="19"/>
-      <c r="B17" s="20"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="19"/>
-      <c r="B18" s="20"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
+      <c r="F11" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="25" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F1:H1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2018,189 +2007,298 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B37" activeCellId="0" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="26" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="26" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="26" width="30.7449392712551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="26" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="26" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="27" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="26" width="26.9311740890688"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="26" width="22.6437246963563"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="26" width="33.4210526315789"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="26" width="22.6437246963563"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="26" width="18.3684210526316"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="14" width="17.753036437247"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="15" width="9.30364372469636"/>
   </cols>
   <sheetData>
-    <row r="1" s="14" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="28"/>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="16" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="27"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="16"/>
-    </row>
-    <row r="2" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="17" t="s">
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+    </row>
+    <row r="2" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="35" t="n">
+        <v>8699693150011</v>
+      </c>
+      <c r="F3" s="36" t="n">
+        <v>6</v>
+      </c>
+      <c r="G3" s="36" t="n">
+        <v>3</v>
+      </c>
+      <c r="H3" s="37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="40" t="n">
+        <v>8699693150080</v>
+      </c>
+      <c r="F4" s="36" t="n">
+        <v>4</v>
+      </c>
+      <c r="G4" s="36" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" s="37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="40" t="n">
+        <v>8699693150172</v>
+      </c>
+      <c r="F5" s="36" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="40" t="n">
+        <v>8699693150189</v>
+      </c>
+      <c r="F6" s="36" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="40" t="n">
+        <v>8699809706620</v>
+      </c>
+      <c r="F7" s="36" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="40" t="n">
+        <v>8699809779181</v>
+      </c>
+      <c r="F8" s="36" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="40" t="n">
+        <v>8699809098558</v>
+      </c>
+      <c r="F9" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="29"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="30"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="30"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="33"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="30"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="33"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="30"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="33"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="30"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="33"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="30"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="33"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="30"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="33"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="30"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="33"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="30"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="33"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="30"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="33"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="30"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="33"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="30"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="30"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="30"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="33"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="30"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="33"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="30"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="33"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
+      <c r="D10" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="40" t="n">
+        <v>8699809098770</v>
+      </c>
+      <c r="F10" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="40" t="n">
+        <v>8699809575202</v>
+      </c>
+      <c r="F11" s="36" t="n">
+        <v>4</v>
+      </c>
+      <c r="G11" s="36" t="n">
+        <v>3</v>
+      </c>
+      <c r="H11" s="37" t="n">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F1:H1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2218,178 +2316,64 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="34" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="34" width="36.9554655870445"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="34" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="34" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="34" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="35" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="41" width="22.0364372469636"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="41" width="40.0323886639676"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="41" width="22.0364372469636"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="41" width="17.502024291498"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="41" width="15.668016194332"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="42" width="19.9514170040486"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="43" width="9.30364372469636"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="36"/>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="16" t="s">
+      <c r="A1" s="44"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="16"/>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="17" t="s">
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+    </row>
+    <row r="2" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="31" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="41" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="41" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="42" t="n">
-        <v>8699809098558</v>
-      </c>
-      <c r="F5" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="41" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="42" t="n">
-        <v>8699809098770</v>
-      </c>
-      <c r="F6" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="41" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="38"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="38"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="38"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
+      <c r="H2" s="31" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F1:H1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2407,192 +2391,277 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="43" width="28.2793522267206"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="44" width="32.1376518218623"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="43" width="21.8542510121457"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="44" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="44" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="43" width="18.4251012145749"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="43" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="45" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="26" width="30.4777327935223"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="46" width="34.6437246963563"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="26" width="23.6315789473684"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="46" width="28.1578947368421"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="46" width="20.3238866396761"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="26" width="19.82995951417"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="26" width="19.0971659919028"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="47" width="13.3481781376518"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="48" width="9.30364372469636"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="15"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="16" t="s">
+      <c r="A1" s="49"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="16"/>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="46" t="s">
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+    </row>
+    <row r="2" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="47" t="s">
+      <c r="G2" s="31" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="48" t="s">
+      <c r="H2" s="31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="D3" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="50" t="s">
+      <c r="C4" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="31" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="51" t="s">
+      <c r="E6" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="50" t="s">
+      <c r="B7" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="31" t="n">
+      <c r="E7" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="36" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="51" t="s">
+      <c r="H9" s="36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="31" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="31" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="52"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="0"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="52"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="0"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="52"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="0"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="52"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="0"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="54"/>
+      <c r="B10" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F1:H1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2610,340 +2679,299 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E29" activeCellId="0" sqref="E29"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="55" width="30.8502024291498"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="55" width="42.6315789473684"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="55" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="55" width="17.4615384615385"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="55" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="55" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="56" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="56" width="33.4210526315789"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="56" width="46.1538461538462"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="56" width="20.1943319838057"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="56" width="18.7327935222672"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="56" width="17.502024291498"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="56" width="19.0971659919028"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="57" width="17.2591093117409"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="58" width="9.30364372469636"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="57"/>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="16" t="s">
+      <c r="A1" s="59"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="46" t="s">
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+    </row>
+    <row r="2" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="47" t="s">
+      <c r="G2" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="0"/>
-    </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="48" t="s">
+      <c r="H2" s="31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="59" t="n">
+      <c r="B3" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="62" t="n">
         <v>8699693150011</v>
       </c>
-      <c r="D3" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="50" t="s">
+      <c r="D3" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="61" t="n">
+      <c r="E3" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="64" t="n">
+        <v>6</v>
+      </c>
+      <c r="G3" s="64" t="n">
         <v>3</v>
       </c>
-      <c r="G3" s="61" t="n">
+      <c r="H3" s="64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="62" t="n">
+        <v>8699693150080</v>
+      </c>
+      <c r="D4" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="64" t="n">
+        <v>4</v>
+      </c>
+      <c r="G4" s="64" t="n">
         <v>2</v>
       </c>
-      <c r="H3" s="62"/>
-    </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="48" t="s">
+      <c r="H4" s="64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="59" t="n">
-        <v>8699693150080</v>
-      </c>
-      <c r="D4" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="61" t="n">
-        <v>2</v>
-      </c>
-      <c r="G4" s="61" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="62"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="63" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="64" t="s">
-        <v>41</v>
+      <c r="B5" s="56" t="s">
+        <v>42</v>
       </c>
       <c r="C5" s="65" t="n">
         <v>8699693150172</v>
       </c>
-      <c r="D5" s="64" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="50" t="s">
+      <c r="D5" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="61" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="61" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="63" t="s">
+      <c r="E5" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="64" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" s="64" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="64" t="s">
-        <v>42</v>
+      <c r="B6" s="56" t="s">
+        <v>43</v>
       </c>
       <c r="C6" s="65" t="n">
         <v>8699693150189</v>
       </c>
-      <c r="D6" s="64" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="50" t="s">
+      <c r="D6" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="61" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="61" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="63" t="s">
+      <c r="E6" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="64" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" s="64" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="64" t="s">
-        <v>43</v>
+      <c r="B7" s="56" t="s">
+        <v>44</v>
       </c>
       <c r="C7" s="65" t="n">
         <v>8699809706620</v>
       </c>
-      <c r="D7" s="64" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="23" t="s">
+      <c r="D7" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="61" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="61" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="63" t="s">
+      <c r="E7" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="64" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" s="64" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="64" t="s">
-        <v>46</v>
+      <c r="B8" s="56" t="s">
+        <v>47</v>
       </c>
       <c r="C8" s="65" t="n">
         <v>8699809779181</v>
       </c>
-      <c r="D8" s="64" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="23" t="s">
+      <c r="D8" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="61" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="61" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="63" t="s">
+      <c r="E8" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="64" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" s="64" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="64" t="s">
-        <v>47</v>
+      <c r="B9" s="56" t="s">
+        <v>48</v>
       </c>
       <c r="C9" s="65" t="n">
         <v>8699809098558</v>
       </c>
-      <c r="D9" s="64" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="64" t="s">
+      <c r="D9" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="61" t="n">
-        <v>2</v>
-      </c>
-      <c r="G9" s="61" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="63" t="s">
+      <c r="E9" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="64" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="64" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="64" t="s">
-        <v>50</v>
+      <c r="B10" s="56" t="s">
+        <v>51</v>
       </c>
       <c r="C10" s="65" t="n">
         <v>8699809098770</v>
       </c>
-      <c r="D10" s="64" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="64" t="s">
+      <c r="D10" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="61" t="n">
+      <c r="E10" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="64" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="64" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="56" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="65" t="n">
+        <v>8699809575202</v>
+      </c>
+      <c r="D11" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="64" t="n">
+        <v>4</v>
+      </c>
+      <c r="G11" s="64" t="n">
+        <v>3</v>
+      </c>
+      <c r="H11" s="64" t="n">
         <v>2</v>
-      </c>
-      <c r="G10" s="61" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="65" t="n">
-        <v>8699693150011</v>
-      </c>
-      <c r="D11" s="64" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="61" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" s="61" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="64" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="65" t="n">
-        <v>8699693150080</v>
-      </c>
-      <c r="D12" s="64" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="61" t="s">
-        <v>66</v>
-      </c>
-      <c r="G12" s="61" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="64" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="65" t="n">
-        <v>8699809706620</v>
-      </c>
-      <c r="D13" s="64" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="61" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" s="61" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="64" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="65" t="n">
-        <v>8699809779181</v>
-      </c>
-      <c r="D14" s="64" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="61" t="s">
-        <v>66</v>
-      </c>
-      <c r="G14" s="61" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F1:H1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Projects/SANOFITR/Data/Template.xlsx
+++ b/Projects/SANOFITR/Data/Template.xlsx
@@ -1083,7 +1083,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="65">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1229,10 +1229,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1428,20 +1424,20 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.6315789473684"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.0566801619433"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.3238866396761"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.0404858299595"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.8097165991903"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.18218623481781"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.1174089068826"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.663967611336"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.8097165991903"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.0607287449393"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.4048582995951"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.0526315789474"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="27.2995951417004"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.30364372469636"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1698,21 +1694,21 @@
   </sheetPr>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="26.9311740890688"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="46.1538461538462"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="23.6315789473684"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="19.0971659919028"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="14.4453441295547"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="19.0971659919028"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="13" width="17.502024291498"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="14" width="17.502024291498"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="15" width="9.30364372469636"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="27.5425101214575"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="47.2550607287449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="24.1174089068826"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="19.587044534413"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="14.8097165991903"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="19.587044534413"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="13" width="17.8744939271255"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="14" width="17.8744939271255"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="15" width="9.4251012145749"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2009,19 +2005,19 @@
   </sheetPr>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B37" activeCellId="0" sqref="B37"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="26" width="26.9311740890688"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="26" width="22.6437246963563"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="26" width="33.4210526315789"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="26" width="22.6437246963563"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="26" width="18.3684210526316"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="14" width="17.753036437247"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="15" width="9.30364372469636"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="26" width="27.5425101214575"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="26" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="26" width="34.1578947368421"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="26" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="26" width="18.7327935222672"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="14" width="18.1174089068826"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="15" width="9.4251012145749"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2079,90 +2075,90 @@
         <v>8699693150011</v>
       </c>
       <c r="F3" s="36" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G3" s="36" t="n">
-        <v>3</v>
-      </c>
-      <c r="H3" s="37" t="n">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="H3" s="36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="37" t="s">
         <v>39</v>
       </c>
       <c r="C4" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="40" t="n">
+      <c r="E4" s="39" t="n">
         <v>8699693150080</v>
       </c>
       <c r="F4" s="36" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G4" s="36" t="n">
-        <v>2</v>
-      </c>
-      <c r="H4" s="37" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H4" s="36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="37" t="s">
         <v>39</v>
       </c>
       <c r="C5" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="40" t="n">
+      <c r="E5" s="39" t="n">
         <v>8699693150172</v>
       </c>
       <c r="F5" s="36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G5" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="37" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H5" s="36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="37" t="s">
         <v>39</v>
       </c>
       <c r="C6" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="40" t="n">
+      <c r="E6" s="39" t="n">
         <v>8699693150189</v>
       </c>
       <c r="F6" s="36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G6" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2170,130 +2166,130 @@
       <c r="A7" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="37" t="s">
         <v>45</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="40" t="n">
+      <c r="E7" s="39" t="n">
         <v>8699809706620</v>
       </c>
       <c r="F7" s="36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G7" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="37" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H7" s="36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="37" t="s">
         <v>45</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="40" t="n">
+      <c r="E8" s="39" t="n">
         <v>8699809779181</v>
       </c>
       <c r="F8" s="36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G8" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="37" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H8" s="36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="39" t="s">
+      <c r="D9" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="40" t="n">
+      <c r="E9" s="39" t="n">
         <v>8699809098558</v>
       </c>
       <c r="F9" s="36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="37" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H9" s="36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="39" t="s">
+      <c r="D10" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="40" t="n">
+      <c r="E10" s="39" t="n">
         <v>8699809098770</v>
       </c>
       <c r="F10" s="36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" s="37" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H10" s="36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="D11" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="40" t="n">
+      <c r="E11" s="39" t="n">
         <v>8699809575202</v>
       </c>
       <c r="F11" s="36" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G11" s="36" t="n">
-        <v>3</v>
-      </c>
-      <c r="H11" s="37" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="H11" s="36" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2318,27 +2314,27 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D35" activeCellId="0" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="41" width="22.0364372469636"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="41" width="40.0323886639676"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="41" width="22.0364372469636"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="41" width="17.502024291498"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="41" width="15.668016194332"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="42" width="19.9514170040486"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="43" width="9.30364372469636"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="40" width="22.5222672064777"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="40" width="41.0121457489879"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="40" width="22.5222672064777"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="40" width="17.8744939271255"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="40" width="15.919028340081"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="41" width="20.4453441295547"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="42" width="9.4251012145749"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="44"/>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
+      <c r="A1" s="43"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
       <c r="F1" s="28" t="s">
         <v>30</v>
       </c>
@@ -2358,7 +2354,7 @@
       <c r="D2" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="44" t="s">
         <v>32</v>
       </c>
       <c r="F2" s="30" t="s">
@@ -2393,29 +2389,29 @@
   </sheetPr>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C44" activeCellId="0" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="26" width="30.4777327935223"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="46" width="34.6437246963563"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="26" width="23.6315789473684"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="46" width="28.1578947368421"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="46" width="20.3238866396761"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="26" width="19.82995951417"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="26" width="19.0971659919028"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="47" width="13.3481781376518"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="48" width="9.30364372469636"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="26" width="31.2226720647773"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="45" width="35.497975708502"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="26" width="24.1174089068826"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="45" width="28.7732793522267"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="45" width="20.8097165991903"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="26" width="20.3238866396761"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="26" width="19.587044534413"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="46" width="13.7125506072874"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="47" width="9.4251012145749"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="49"/>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
+      <c r="A1" s="48"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
       <c r="F1" s="28" t="s">
         <v>30</v>
       </c>
@@ -2423,19 +2419,19 @@
       <c r="H1" s="28"/>
     </row>
     <row r="2" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="50" t="s">
+      <c r="A2" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="49" t="s">
         <v>34</v>
       </c>
       <c r="F2" s="30" t="s">
@@ -2448,8 +2444,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="51" t="s">
+    <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="50" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="34" t="s">
@@ -2458,10 +2454,10 @@
       <c r="C3" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="52" t="s">
+      <c r="E3" s="51" t="s">
         <v>40</v>
       </c>
       <c r="F3" s="36" t="n">
@@ -2475,7 +2471,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="50" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="34" t="s">
@@ -2484,7 +2480,7 @@
       <c r="C4" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="52" t="s">
+      <c r="D4" s="51" t="s">
         <v>45</v>
       </c>
       <c r="E4" s="0" t="s">
@@ -2500,8 +2496,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="51" t="s">
+    <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="50" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="34" t="s">
@@ -2510,10 +2506,10 @@
       <c r="C5" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="52" t="s">
+      <c r="D5" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="52" t="s">
+      <c r="E5" s="51" t="s">
         <v>50</v>
       </c>
       <c r="F5" s="36" t="n">
@@ -2526,8 +2522,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="53" t="s">
+    <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="52" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="34" t="s">
@@ -2536,10 +2532,10 @@
       <c r="C6" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="52" t="s">
+      <c r="E6" s="51" t="s">
         <v>40</v>
       </c>
       <c r="F6" s="36" t="n">
@@ -2552,8 +2548,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="53" t="s">
+    <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="52" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="34" t="s">
@@ -2562,10 +2558,10 @@
       <c r="C7" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="52" t="s">
+      <c r="D7" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="52" t="s">
+      <c r="E7" s="51" t="s">
         <v>40</v>
       </c>
       <c r="F7" s="36" t="n">
@@ -2579,7 +2575,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="52" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="34" t="s">
@@ -2588,7 +2584,7 @@
       <c r="C8" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="52" t="s">
+      <c r="D8" s="51" t="s">
         <v>45</v>
       </c>
       <c r="E8" s="0" t="s">
@@ -2605,7 +2601,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="52" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="34" t="s">
@@ -2614,7 +2610,7 @@
       <c r="C9" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="52" t="s">
+      <c r="D9" s="51" t="s">
         <v>45</v>
       </c>
       <c r="E9" s="0" t="s">
@@ -2630,8 +2626,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="53" t="s">
+    <row r="10" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="52" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="34" t="s">
@@ -2640,10 +2636,10 @@
       <c r="C10" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="52" t="s">
+      <c r="E10" s="51" t="s">
         <v>50</v>
       </c>
       <c r="F10" s="36" t="n">
@@ -2657,7 +2653,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="55"/>
+      <c r="C11" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2681,28 +2677,28 @@
   </sheetPr>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="56" width="33.4210526315789"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="56" width="46.1538461538462"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="56" width="20.1943319838057"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="56" width="18.7327935222672"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="56" width="17.502024291498"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="56" width="19.0971659919028"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="57" width="17.2591093117409"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="58" width="9.30364372469636"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="55" width="34.1578947368421"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="55" width="47.2550607287449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="55" width="20.6882591093117"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="55" width="19.2186234817814"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="55" width="17.8744939271255"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="55" width="19.587044534413"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="56" width="17.6234817813765"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="57" width="9.4251012145749"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="59"/>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
+      <c r="A1" s="58"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
       <c r="F1" s="28" t="s">
         <v>30</v>
       </c>
@@ -2710,19 +2706,19 @@
       <c r="H1" s="28"/>
     </row>
     <row r="2" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="50" t="s">
+      <c r="A2" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="49" t="s">
         <v>34</v>
       </c>
       <c r="F2" s="30" t="s">
@@ -2736,236 +2732,236 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="62" t="n">
+      <c r="C3" s="61" t="n">
         <v>8699693150011</v>
       </c>
-      <c r="D3" s="63" t="s">
+      <c r="D3" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="63" t="s">
+      <c r="E3" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="64" t="n">
+      <c r="F3" s="63" t="n">
         <v>6</v>
       </c>
-      <c r="G3" s="64" t="n">
+      <c r="G3" s="63" t="n">
         <v>3</v>
       </c>
-      <c r="H3" s="64" t="n">
+      <c r="H3" s="63" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="62" t="n">
+      <c r="C4" s="61" t="n">
         <v>8699693150080</v>
       </c>
-      <c r="D4" s="63" t="s">
+      <c r="D4" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="63" t="s">
+      <c r="E4" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="64" t="n">
+      <c r="F4" s="63" t="n">
         <v>4</v>
       </c>
-      <c r="G4" s="64" t="n">
+      <c r="G4" s="63" t="n">
         <v>2</v>
       </c>
-      <c r="H4" s="64" t="n">
+      <c r="H4" s="63" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="65" t="n">
+      <c r="C5" s="64" t="n">
         <v>8699693150172</v>
       </c>
-      <c r="D5" s="56" t="s">
+      <c r="D5" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="56" t="s">
+      <c r="E5" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="64" t="n">
+      <c r="F5" s="63" t="n">
         <v>2</v>
       </c>
-      <c r="G5" s="64" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="64" t="n">
+      <c r="G5" s="63" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="63" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="65" t="n">
+      <c r="C6" s="64" t="n">
         <v>8699693150189</v>
       </c>
-      <c r="D6" s="56" t="s">
+      <c r="D6" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="56" t="s">
+      <c r="E6" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="64" t="n">
+      <c r="F6" s="63" t="n">
         <v>2</v>
       </c>
-      <c r="G6" s="64" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="64" t="n">
+      <c r="G6" s="63" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="63" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="65" t="n">
+      <c r="C7" s="64" t="n">
         <v>8699809706620</v>
       </c>
-      <c r="D7" s="56" t="s">
+      <c r="D7" s="55" t="s">
         <v>45</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="64" t="n">
+      <c r="F7" s="63" t="n">
         <v>2</v>
       </c>
-      <c r="G7" s="64" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="64" t="n">
+      <c r="G7" s="63" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="63" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="65" t="n">
+      <c r="C8" s="64" t="n">
         <v>8699809779181</v>
       </c>
-      <c r="D8" s="56" t="s">
+      <c r="D8" s="55" t="s">
         <v>45</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="64" t="n">
+      <c r="F8" s="63" t="n">
         <v>2</v>
       </c>
-      <c r="G8" s="64" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="64" t="n">
+      <c r="G8" s="63" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="63" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="60" t="s">
+      <c r="A9" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="65" t="n">
+      <c r="C9" s="64" t="n">
         <v>8699809098558</v>
       </c>
-      <c r="D9" s="56" t="s">
+      <c r="D9" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="56" t="s">
+      <c r="E9" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="64" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="64" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="64" t="n">
+      <c r="F9" s="63" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="63" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="63" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="65" t="n">
+      <c r="C10" s="64" t="n">
         <v>8699809098770</v>
       </c>
-      <c r="D10" s="56" t="s">
+      <c r="D10" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="56" t="s">
+      <c r="E10" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="64" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="64" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" s="64" t="n">
+      <c r="F10" s="63" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="63" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="63" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="60" t="s">
+      <c r="A11" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="56" t="s">
+      <c r="B11" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="65" t="n">
+      <c r="C11" s="64" t="n">
         <v>8699809575202</v>
       </c>
-      <c r="D11" s="56" t="s">
+      <c r="D11" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="56" t="s">
+      <c r="E11" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="64" t="n">
+      <c r="F11" s="63" t="n">
         <v>4</v>
       </c>
-      <c r="G11" s="64" t="n">
+      <c r="G11" s="63" t="n">
         <v>3</v>
       </c>
-      <c r="H11" s="64" t="n">
+      <c r="H11" s="63" t="n">
         <v>2</v>
       </c>
     </row>

--- a/Projects/SANOFITR/Data/Template.xlsx
+++ b/Projects/SANOFITR/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -1083,7 +1083,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="61">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1168,20 +1168,16 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1214,18 +1210,6 @@
     </xf>
     <xf numFmtId="164" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1424,20 +1408,20 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.1174089068826"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.663967611336"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.8097165991903"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.0607287449393"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.4048582995951"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.0526315789474"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="27.2995951417004"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.30364372469636"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.7287449392713"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.2793522267206"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.1821862348178"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.4251012145749"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.7732793522267"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.3036437246964"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="27.9068825910931"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.4251012145749"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1694,21 +1678,21 @@
   </sheetPr>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="27.5425101214575"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="47.2550607287449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="24.1174089068826"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="19.587044534413"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="14.8097165991903"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="19.587044534413"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="13" width="17.8744939271255"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="14" width="17.8744939271255"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="15" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="28.1578947368421"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="48.3522267206478"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="24.7287449392713"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="20.0728744939271"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="15.0526315789474"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="20.0728744939271"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="13" width="18.2388663967611"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="14" width="18.2388663967611"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="15" width="9.54655870445344"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1762,16 +1746,16 @@
       <c r="D3" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="25" t="n">
+      <c r="F3" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1788,16 +1772,16 @@
       <c r="D4" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="25" t="n">
+      <c r="F4" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1814,16 +1798,16 @@
       <c r="D5" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="25" t="n">
+      <c r="F5" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1840,16 +1824,16 @@
       <c r="D6" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="25" t="n">
+      <c r="F6" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1866,16 +1850,16 @@
       <c r="D7" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="25" t="n">
+      <c r="F7" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1892,16 +1876,16 @@
       <c r="D8" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="25" t="n">
+      <c r="F8" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1921,13 +1905,13 @@
       <c r="E9" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="25" t="n">
+      <c r="F9" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1947,13 +1931,13 @@
       <c r="E10" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" s="25" t="n">
+      <c r="F10" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1973,13 +1957,13 @@
       <c r="E11" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="25" t="n">
+      <c r="F11" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2005,290 +1989,290 @@
   </sheetPr>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="26" width="27.5425101214575"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="26" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="26" width="34.1578947368421"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="26" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="26" width="18.7327935222672"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="14" width="18.1174089068826"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="15" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="25" width="28.1578947368421"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="25" width="23.6315789473684"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="25" width="34.8906882591093"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="25" width="23.6315789473684"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="25" width="19.2186234817814"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="14" width="18.4898785425101"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="15" width="9.54655870445344"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="27"/>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="28" t="s">
+      <c r="A1" s="26"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
     </row>
     <row r="2" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="29" t="s">
+      <c r="A2" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="31" t="s">
+      <c r="H2" s="30" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="35" t="n">
+      <c r="E3" s="22" t="n">
         <v>8699693150011</v>
       </c>
-      <c r="F3" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="36" t="n">
+      <c r="F3" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="39" t="n">
+      <c r="E4" s="35" t="n">
         <v>8699693150080</v>
       </c>
-      <c r="F4" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="36" t="n">
+      <c r="F4" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="39" t="n">
+      <c r="E5" s="35" t="n">
         <v>8699693150172</v>
       </c>
-      <c r="F5" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="36" t="n">
+      <c r="F5" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="39" t="n">
+      <c r="E6" s="35" t="n">
         <v>8699693150189</v>
       </c>
-      <c r="F6" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="36" t="n">
+      <c r="F6" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="33" t="s">
         <v>45</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="39" t="n">
+      <c r="E7" s="35" t="n">
         <v>8699809706620</v>
       </c>
-      <c r="F7" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="36" t="n">
+      <c r="F7" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="33" t="s">
         <v>45</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="39" t="n">
+      <c r="E8" s="35" t="n">
         <v>8699809779181</v>
       </c>
-      <c r="F8" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="36" t="n">
+      <c r="F8" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="39" t="n">
+      <c r="E9" s="35" t="n">
         <v>8699809098558</v>
       </c>
-      <c r="F9" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="36" t="n">
+      <c r="F9" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="39" t="n">
+      <c r="E10" s="35" t="n">
         <v>8699809098770</v>
       </c>
-      <c r="F10" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="36" t="n">
+      <c r="F10" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="38" t="s">
+      <c r="D11" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="39" t="n">
+      <c r="E11" s="35" t="n">
         <v>8699809575202</v>
       </c>
-      <c r="F11" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="36" t="n">
+      <c r="F11" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2314,56 +2298,56 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D35" activeCellId="0" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="40" width="22.5222672064777"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="40" width="41.0121457489879"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="40" width="22.5222672064777"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="40" width="17.8744939271255"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="40" width="15.919028340081"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="41" width="20.4453441295547"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="42" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="36" width="23.0161943319838"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="36" width="41.9919028340081"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="36" width="23.0161943319838"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="36" width="18.2388663967611"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="36" width="16.1619433198381"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="37" width="20.9392712550607"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="38" width="9.54655870445344"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="43"/>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="28" t="s">
+      <c r="A1" s="39"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
     </row>
     <row r="2" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="29" t="s">
+      <c r="A2" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="31" t="s">
+      <c r="H2" s="30" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2389,271 +2373,271 @@
   </sheetPr>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C44" activeCellId="0" sqref="C44"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="26" width="31.2226720647773"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="45" width="35.497975708502"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="26" width="24.1174089068826"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="45" width="28.7732793522267"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="45" width="20.8097165991903"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="26" width="20.3238866396761"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="26" width="19.587044534413"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="46" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="47" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="25" width="31.9514170040486"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="41" width="36.3643724696356"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="25" width="24.7287449392713"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="41" width="29.3805668016194"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="41" width="21.1821862348178"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="25" width="20.8097165991903"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="25" width="20.0728744939271"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="42" width="14.0769230769231"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="43" width="9.54655870445344"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="48"/>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="28" t="s">
+      <c r="A1" s="44"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
     </row>
     <row r="2" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="49" t="s">
+      <c r="A2" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="31" t="s">
+      <c r="H2" s="30" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="51" t="s">
+      <c r="E3" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="36" t="n">
+      <c r="F3" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="32" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="47" t="s">
         <v>45</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="36" t="n">
+      <c r="F4" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="32" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="51" t="s">
+      <c r="D5" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="51" t="s">
+      <c r="E5" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="36" t="n">
+      <c r="F5" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="D6" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="51" t="s">
+      <c r="E6" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="36" t="n">
+      <c r="F6" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="51" t="s">
+      <c r="D7" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="51" t="s">
+      <c r="E7" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="36" t="n">
+      <c r="F7" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="32" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="51" t="s">
+      <c r="D8" s="47" t="s">
         <v>45</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="36" t="n">
+      <c r="F8" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="32" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="51" t="s">
+      <c r="D9" s="47" t="s">
         <v>45</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="36" t="n">
+      <c r="F9" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="51" t="s">
+      <c r="E10" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" s="36" t="n">
+      <c r="F10" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="54"/>
+      <c r="C11" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2677,291 +2661,291 @@
   </sheetPr>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="55" width="34.1578947368421"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="55" width="47.2550607287449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="55" width="20.6882591093117"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="55" width="19.2186234817814"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="55" width="17.8744939271255"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="55" width="19.587044534413"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="56" width="17.6234817813765"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="57" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="51" width="34.8906882591093"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="51" width="48.3522267206478"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="51" width="21.1821862348178"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="51" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="51" width="18.2388663967611"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="51" width="20.0728744939271"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="52" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="53" width="9.54655870445344"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="58"/>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="28" t="s">
+      <c r="A1" s="54"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
     </row>
     <row r="2" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="49" t="s">
+      <c r="A2" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="31" t="s">
+      <c r="H2" s="30" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="61" t="n">
+      <c r="C3" s="57" t="n">
         <v>8699693150011</v>
       </c>
-      <c r="D3" s="62" t="s">
+      <c r="D3" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="62" t="s">
+      <c r="E3" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="63" t="n">
+      <c r="F3" s="59" t="n">
         <v>6</v>
       </c>
-      <c r="G3" s="63" t="n">
+      <c r="G3" s="59" t="n">
         <v>3</v>
       </c>
-      <c r="H3" s="63" t="n">
+      <c r="H3" s="59" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="61" t="n">
+      <c r="C4" s="57" t="n">
         <v>8699693150080</v>
       </c>
-      <c r="D4" s="62" t="s">
+      <c r="D4" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="62" t="s">
+      <c r="E4" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="63" t="n">
+      <c r="F4" s="59" t="n">
         <v>4</v>
       </c>
-      <c r="G4" s="63" t="n">
+      <c r="G4" s="59" t="n">
         <v>2</v>
       </c>
-      <c r="H4" s="63" t="n">
+      <c r="H4" s="59" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="64" t="n">
+      <c r="C5" s="60" t="n">
         <v>8699693150172</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="55" t="s">
+      <c r="E5" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="63" t="n">
+      <c r="F5" s="59" t="n">
         <v>2</v>
       </c>
-      <c r="G5" s="63" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="63" t="n">
+      <c r="G5" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="59" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="64" t="n">
+      <c r="C6" s="60" t="n">
         <v>8699693150189</v>
       </c>
-      <c r="D6" s="55" t="s">
+      <c r="D6" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="55" t="s">
+      <c r="E6" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="63" t="n">
+      <c r="F6" s="59" t="n">
         <v>2</v>
       </c>
-      <c r="G6" s="63" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="63" t="n">
+      <c r="G6" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="59" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="64" t="n">
+      <c r="C7" s="60" t="n">
         <v>8699809706620</v>
       </c>
-      <c r="D7" s="55" t="s">
+      <c r="D7" s="51" t="s">
         <v>45</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="63" t="n">
+      <c r="F7" s="59" t="n">
         <v>2</v>
       </c>
-      <c r="G7" s="63" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="63" t="n">
+      <c r="G7" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="59" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="64" t="n">
+      <c r="C8" s="60" t="n">
         <v>8699809779181</v>
       </c>
-      <c r="D8" s="55" t="s">
+      <c r="D8" s="51" t="s">
         <v>45</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="63" t="n">
+      <c r="F8" s="59" t="n">
         <v>2</v>
       </c>
-      <c r="G8" s="63" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="63" t="n">
+      <c r="G8" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="59" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="64" t="n">
+      <c r="C9" s="60" t="n">
         <v>8699809098558</v>
       </c>
-      <c r="D9" s="55" t="s">
+      <c r="D9" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="55" t="s">
+      <c r="E9" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="63" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="63" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="63" t="n">
-        <v>1</v>
+      <c r="F9" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="59" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="64" t="n">
+      <c r="C10" s="60" t="n">
         <v>8699809098770</v>
       </c>
-      <c r="D10" s="55" t="s">
+      <c r="D10" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="55" t="s">
+      <c r="E10" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="63" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="63" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" s="63" t="n">
-        <v>1</v>
+      <c r="F10" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="59" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="59" t="s">
+      <c r="A11" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="64" t="n">
+      <c r="C11" s="60" t="n">
         <v>8699809575202</v>
       </c>
-      <c r="D11" s="55" t="s">
+      <c r="D11" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="55" t="s">
+      <c r="E11" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="63" t="n">
+      <c r="F11" s="59" t="n">
         <v>4</v>
       </c>
-      <c r="G11" s="63" t="n">
+      <c r="G11" s="59" t="n">
         <v>3</v>
       </c>
-      <c r="H11" s="63" t="n">
+      <c r="H11" s="59" t="n">
         <v>2</v>
       </c>
     </row>

--- a/Projects/SANOFITR/Data/Template.xlsx
+++ b/Projects/SANOFITR/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -1083,7 +1083,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="65">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1168,48 +1168,64 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="16" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1408,20 +1424,20 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.7287449392713"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.2793522267206"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.1821862348178"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.4251012145749"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.7732793522267"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.3036437246964"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="27.9068825910931"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.1174089068826"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.663967611336"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.8097165991903"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.0607287449393"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.4048582995951"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.0526315789474"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="27.2995951417004"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.30364372469636"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1678,21 +1694,21 @@
   </sheetPr>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="28.1578947368421"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="48.3522267206478"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="24.7287449392713"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="20.0728744939271"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="15.0526315789474"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="20.0728744939271"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="13" width="18.2388663967611"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="14" width="18.2388663967611"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="15" width="9.54655870445344"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="27.5425101214575"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="47.2550607287449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="24.1174089068826"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="19.587044534413"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="14.8097165991903"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="19.587044534413"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="13" width="17.8744939271255"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="14" width="17.8744939271255"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="15" width="9.4251012145749"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1746,16 +1762,16 @@
       <c r="D3" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="24" t="n">
+      <c r="F3" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1772,16 +1788,16 @@
       <c r="D4" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="24" t="n">
+      <c r="F4" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1798,16 +1814,16 @@
       <c r="D5" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="24" t="n">
+      <c r="F5" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1824,16 +1840,16 @@
       <c r="D6" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="24" t="n">
+      <c r="F6" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1850,16 +1866,16 @@
       <c r="D7" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="24" t="n">
+      <c r="F7" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1876,16 +1892,16 @@
       <c r="D8" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="24" t="n">
+      <c r="F8" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1905,13 +1921,13 @@
       <c r="E9" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="24" t="n">
+      <c r="F9" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1931,13 +1947,13 @@
       <c r="E10" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" s="24" t="n">
+      <c r="F10" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1957,13 +1973,13 @@
       <c r="E11" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="24" t="n">
+      <c r="F11" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1989,290 +2005,290 @@
   </sheetPr>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="25" width="28.1578947368421"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="25" width="23.6315789473684"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="25" width="34.8906882591093"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="25" width="23.6315789473684"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="25" width="19.2186234817814"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="14" width="18.4898785425101"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="15" width="9.54655870445344"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="26" width="27.5425101214575"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="26" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="26" width="34.1578947368421"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="26" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="26" width="18.7327935222672"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="14" width="18.1174089068826"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="15" width="9.4251012145749"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="26"/>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="27" t="s">
+      <c r="A1" s="27"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="28" t="s">
+      <c r="A2" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="H2" s="31" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="22" t="n">
+      <c r="E3" s="35" t="n">
         <v>8699693150011</v>
       </c>
-      <c r="F3" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="32" t="n">
+      <c r="F3" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="36" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="35" t="n">
+      <c r="E4" s="39" t="n">
         <v>8699693150080</v>
       </c>
-      <c r="F4" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="32" t="n">
+      <c r="F4" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="36" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="35" t="n">
+      <c r="E5" s="39" t="n">
         <v>8699693150172</v>
       </c>
-      <c r="F5" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="32" t="n">
+      <c r="F5" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="36" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="35" t="n">
+      <c r="E6" s="39" t="n">
         <v>8699693150189</v>
       </c>
-      <c r="F6" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="32" t="n">
+      <c r="F6" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="36" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="37" t="s">
         <v>45</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="35" t="n">
+      <c r="E7" s="39" t="n">
         <v>8699809706620</v>
       </c>
-      <c r="F7" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="32" t="n">
+      <c r="F7" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="36" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="37" t="s">
         <v>45</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="35" t="n">
+      <c r="E8" s="39" t="n">
         <v>8699809779181</v>
       </c>
-      <c r="F8" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="32" t="n">
+      <c r="F8" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="36" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="35" t="n">
+      <c r="E9" s="39" t="n">
         <v>8699809098558</v>
       </c>
-      <c r="F9" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="32" t="n">
+      <c r="F9" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="36" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="35" t="n">
+      <c r="E10" s="39" t="n">
         <v>8699809098770</v>
       </c>
-      <c r="F10" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="32" t="n">
+      <c r="F10" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="36" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="35" t="n">
+      <c r="E11" s="39" t="n">
         <v>8699809575202</v>
       </c>
-      <c r="F11" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="32" t="n">
+      <c r="F11" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2298,56 +2314,56 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D35" activeCellId="0" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="36" width="23.0161943319838"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="36" width="41.9919028340081"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="36" width="23.0161943319838"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="36" width="18.2388663967611"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="36" width="16.1619433198381"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="37" width="20.9392712550607"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="38" width="9.54655870445344"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="40" width="22.5222672064777"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="40" width="41.0121457489879"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="40" width="22.5222672064777"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="40" width="17.8744939271255"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="40" width="15.919028340081"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="41" width="20.4453441295547"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="42" width="9.4251012145749"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="39"/>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="27" t="s">
+      <c r="A1" s="43"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="28" t="s">
+      <c r="A2" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="H2" s="31" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2373,271 +2389,271 @@
   </sheetPr>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C44" activeCellId="0" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="25" width="31.9514170040486"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="41" width="36.3643724696356"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="25" width="24.7287449392713"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="41" width="29.3805668016194"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="41" width="21.1821862348178"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="25" width="20.8097165991903"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="25" width="20.0728744939271"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="42" width="14.0769230769231"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="43" width="9.54655870445344"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="26" width="31.2226720647773"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="45" width="35.497975708502"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="26" width="24.1174089068826"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="45" width="28.7732793522267"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="45" width="20.8097165991903"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="26" width="20.3238866396761"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="26" width="19.587044534413"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="46" width="13.7125506072874"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="47" width="9.4251012145749"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="44"/>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="27" t="s">
+      <c r="A1" s="48"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="45" t="s">
+      <c r="A2" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="H2" s="31" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="32" t="n">
+      <c r="F3" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="36" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="47" t="s">
+      <c r="D4" s="51" t="s">
         <v>45</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="32" t="n">
+      <c r="F4" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="36" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="E5" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="32" t="n">
+      <c r="F5" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="36" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="47" t="s">
+      <c r="E6" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="32" t="n">
+      <c r="F6" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="36" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="47" t="s">
+      <c r="E7" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="32" t="n">
+      <c r="F7" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="36" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="51" t="s">
         <v>45</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="32" t="n">
+      <c r="F8" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="36" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="47" t="s">
+      <c r="D9" s="51" t="s">
         <v>45</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="32" t="n">
+      <c r="F9" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="36" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="49" t="s">
+      <c r="D10" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="47" t="s">
+      <c r="E10" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" s="32" t="n">
+      <c r="F10" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="36" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="50"/>
+      <c r="C11" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2661,291 +2677,291 @@
   </sheetPr>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="51" width="34.8906882591093"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="51" width="48.3522267206478"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="51" width="21.1821862348178"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="51" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="51" width="18.2388663967611"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="51" width="20.0728744939271"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="52" width="17.995951417004"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="53" width="9.54655870445344"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="55" width="34.1578947368421"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="55" width="47.2550607287449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="55" width="20.6882591093117"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="55" width="19.2186234817814"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="55" width="17.8744939271255"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="55" width="19.587044534413"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="56" width="17.6234817813765"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="57" width="9.4251012145749"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="54"/>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="27" t="s">
+      <c r="A1" s="58"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="45" t="s">
+      <c r="A2" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="H2" s="31" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="57" t="n">
+      <c r="C3" s="61" t="n">
         <v>8699693150011</v>
       </c>
-      <c r="D3" s="58" t="s">
+      <c r="D3" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="58" t="s">
+      <c r="E3" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="59" t="n">
+      <c r="F3" s="63" t="n">
         <v>6</v>
       </c>
-      <c r="G3" s="59" t="n">
+      <c r="G3" s="63" t="n">
         <v>3</v>
       </c>
-      <c r="H3" s="59" t="n">
+      <c r="H3" s="63" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="57" t="n">
+      <c r="C4" s="61" t="n">
         <v>8699693150080</v>
       </c>
-      <c r="D4" s="58" t="s">
+      <c r="D4" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="58" t="s">
+      <c r="E4" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="59" t="n">
+      <c r="F4" s="63" t="n">
         <v>4</v>
       </c>
-      <c r="G4" s="59" t="n">
+      <c r="G4" s="63" t="n">
         <v>2</v>
       </c>
-      <c r="H4" s="59" t="n">
+      <c r="H4" s="63" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="60" t="n">
+      <c r="C5" s="64" t="n">
         <v>8699693150172</v>
       </c>
-      <c r="D5" s="51" t="s">
+      <c r="D5" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="51" t="s">
+      <c r="E5" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="59" t="n">
+      <c r="F5" s="63" t="n">
         <v>2</v>
       </c>
-      <c r="G5" s="59" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="59" t="n">
+      <c r="G5" s="63" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="63" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="60" t="n">
+      <c r="C6" s="64" t="n">
         <v>8699693150189</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="D6" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="51" t="s">
+      <c r="E6" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="59" t="n">
+      <c r="F6" s="63" t="n">
         <v>2</v>
       </c>
-      <c r="G6" s="59" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="59" t="n">
+      <c r="G6" s="63" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="63" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="60" t="n">
+      <c r="C7" s="64" t="n">
         <v>8699809706620</v>
       </c>
-      <c r="D7" s="51" t="s">
+      <c r="D7" s="55" t="s">
         <v>45</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="59" t="n">
+      <c r="F7" s="63" t="n">
         <v>2</v>
       </c>
-      <c r="G7" s="59" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="59" t="n">
+      <c r="G7" s="63" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="63" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="60" t="n">
+      <c r="C8" s="64" t="n">
         <v>8699809779181</v>
       </c>
-      <c r="D8" s="51" t="s">
+      <c r="D8" s="55" t="s">
         <v>45</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="59" t="n">
+      <c r="F8" s="63" t="n">
         <v>2</v>
       </c>
-      <c r="G8" s="59" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="59" t="n">
+      <c r="G8" s="63" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="63" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="55" t="s">
+      <c r="A9" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="60" t="n">
+      <c r="C9" s="64" t="n">
         <v>8699809098558</v>
       </c>
-      <c r="D9" s="51" t="s">
+      <c r="D9" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="51" t="s">
+      <c r="E9" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="59" t="n">
-        <v>0</v>
+      <c r="F9" s="63" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="63" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="63" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="60" t="n">
+      <c r="C10" s="64" t="n">
         <v>8699809098770</v>
       </c>
-      <c r="D10" s="51" t="s">
+      <c r="D10" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="51" t="s">
+      <c r="E10" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="59" t="n">
-        <v>0</v>
+      <c r="F10" s="63" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="63" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="63" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="60" t="n">
+      <c r="C11" s="64" t="n">
         <v>8699809575202</v>
       </c>
-      <c r="D11" s="51" t="s">
+      <c r="D11" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="51" t="s">
+      <c r="E11" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="59" t="n">
+      <c r="F11" s="63" t="n">
         <v>4</v>
       </c>
-      <c r="G11" s="59" t="n">
+      <c r="G11" s="63" t="n">
         <v>3</v>
       </c>
-      <c r="H11" s="59" t="n">
+      <c r="H11" s="63" t="n">
         <v>2</v>
       </c>
     </row>
